--- a/Output/Chapman_1992 Chapman 1992 OS DTIC parameters.xlsx
+++ b/Output/Chapman_1992 Chapman 1992 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.48739851639861</v>
+        <v>-2.41945335488241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119237197740365</v>
+        <v>0.107605083706125</v>
       </c>
       <c r="D2" t="n">
         <v>830.762327127597</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0173439251044164</v>
+        <v>-0.0399294119806398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0858621209145547</v>
+        <v>0.0802228258285359</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.08586326373053</v>
+        <v>2.01849548600067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145302181619435</v>
+        <v>0.122883242611463</v>
       </c>
       <c r="D2" t="n">
         <v>795.971016612306</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.03120411829495</v>
+        <v>-1.01997434819274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.074283046751274</v>
+        <v>0.0818857483036436</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.98994626729784</v>
+        <v>-1.94481970743779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0920141316934637</v>
+        <v>0.105783665680401</v>
       </c>
       <c r="D2" t="n">
         <v>795.800605012606</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.79498497634401</v>
+        <v>1.78244840612281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128896134524951</v>
+        <v>0.145920306625554</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.23135235698007</v>
+        <v>-2.17249190145231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101177196866545</v>
+        <v>0.111546443989113</v>
       </c>
       <c r="D2" t="n">
         <v>815.948126969868</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0235283723645498</v>
+        <v>-0.0268888286602143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00996964691214282</v>
+        <v>0.00923898580002034</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0142175093249749</v>
+        <v>0.0115788540394022</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00675677729281162</v>
+        <v>-0.00318512887970389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00675677729281162</v>
+        <v>-0.00318512887970389</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00737230380794561</v>
+        <v>0.00643570178391561</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0211127239833672</v>
+        <v>0.0151002913147078</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00869402226637252</v>
+        <v>-0.00742396882898494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00869402226637252</v>
+        <v>-0.00742396882898494</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00551797103465195</v>
+        <v>0.00670527577524767</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00846660043130209</v>
+        <v>0.0111901839247827</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00275811421770208</v>
+        <v>0.00854226654679157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00275811421770208</v>
+        <v>0.00854226654679157</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0166142134954742</v>
+        <v>0.0212927358856957</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0102368251657716</v>
+        <v>0.0124426091666163</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000595977887148311</v>
+        <v>-0.000441079631820998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000595977887148311</v>
+        <v>-0.000441079631820998</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000993938595527989</v>
+        <v>0.0000853588586129775</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Chapman_1992 Chapman 1992 OS DTIC parameters.xlsx
+++ b/Output/Chapman_1992 Chapman 1992 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.41945335488241</v>
+        <v>-2.48739851639861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.107605083706125</v>
+        <v>0.119237197740365</v>
       </c>
       <c r="D2" t="n">
         <v>830.762327127597</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0399294119806398</v>
+        <v>-0.0173439251044164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0802228258285359</v>
+        <v>0.0858621209145547</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01849548600067</v>
+        <v>2.08586326373053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122883242611463</v>
+        <v>0.145302181619435</v>
       </c>
       <c r="D2" t="n">
         <v>795.971016612306</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.01997434819274</v>
+        <v>-1.03120411829495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0818857483036436</v>
+        <v>0.074283046751274</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.94481970743779</v>
+        <v>-1.98994626729784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105783665680401</v>
+        <v>0.0920141316934637</v>
       </c>
       <c r="D2" t="n">
         <v>795.800605012606</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.78244840612281</v>
+        <v>0.582431980739211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.145920306625554</v>
+        <v>0.0716241750542441</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.17249190145231</v>
+        <v>-2.23135235698007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.111546443989113</v>
+        <v>0.101177196866545</v>
       </c>
       <c r="D2" t="n">
         <v>815.948126969868</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0268888286602143</v>
+        <v>-0.0235283723645498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00923898580002034</v>
+        <v>0.00996964691214282</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0115788540394022</v>
+        <v>0.0142175093249749</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00318512887970389</v>
+        <v>-0.00675677729281162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00318512887970389</v>
+        <v>-0.00675677729281162</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00643570178391561</v>
+        <v>0.00737230380794561</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0151002913147078</v>
+        <v>0.0211127239833672</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00742396882898494</v>
+        <v>-0.00869402226637252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00742396882898494</v>
+        <v>-0.00869402226637252</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00670527577524767</v>
+        <v>0.00551797103465195</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0111901839247827</v>
+        <v>0.00846660043130209</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00854226654679157</v>
+        <v>0.00154409368478559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00854226654679157</v>
+        <v>0.00154409368478559</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0212927358856957</v>
+        <v>0.00513002245220101</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0124426091666163</v>
+        <v>0.0102368251657716</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000441079631820998</v>
+        <v>-0.000595977887148311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000441079631820998</v>
+        <v>-0.000595977887148311</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000853588586129775</v>
+        <v>0.0000993938595527989</v>
       </c>
     </row>
   </sheetData>
